--- a/Data/qly/华科同济医院/同济医院搜索结果.xlsx
+++ b/Data/qly/华科同济医院/同济医院搜索结果.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,7 +473,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://www.tjh.com.cn/TjhNews/20200803_31157.html</t>
+          <t>https://www.tjh.com.cn/TjhNews/20240830_53195.html</t>
         </is>
       </c>
     </row>
@@ -495,7 +495,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://www.tjh.com.cn/TjhNews/20240830_53195.html</t>
+          <t>https://www.tjh.com.cn/TjhNews/20200803_31157.html</t>
         </is>
       </c>
     </row>
@@ -517,7 +517,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://www.tjh.com.cn/TjhNews/20200803_31157.html</t>
+          <t>https://www.tjh.com.cn/TjhNews/20240830_53195.html</t>
         </is>
       </c>
     </row>
@@ -539,7 +539,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://www.tjh.com.cn/TjhNews/20240830_53195.html</t>
+          <t>https://www.tjh.com.cn/TjhNews/20200803_31157.html</t>
         </is>
       </c>
     </row>
@@ -556,12 +556,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2024-04-25</t>
+          <t>2021-01-06</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://www.tjh.com.cn/TjhNews/20240425_52305.html</t>
+          <t>https://www.tjh.com.cn/TjhNews/20180605_23933.html</t>
         </is>
       </c>
     </row>
@@ -583,7 +583,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://www.tjh.com.cn/TjhNews/20180605_23933.html</t>
+          <t>https://www.tjh.com.cn/TjhNews/20240425_52305.html</t>
         </is>
       </c>
     </row>
@@ -600,7 +600,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2021-01-06</t>
+          <t>2024-04-25</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -622,12 +622,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2021-01-06</t>
+          <t>2024-08-14</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://www.tjh.com.cn/TjhNews/20210106_31938.html</t>
+          <t>https://www.tjh.com.cn/TjhNews/20140728_14417.html</t>
         </is>
       </c>
     </row>
@@ -639,12 +639,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>进修</t>
+          <t>沟通</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2014-07-28</t>
+          <t>2018-06-05</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -661,17 +661,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>进修</t>
+          <t>沟通</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2013-09-09</t>
+          <t>2021-01-06</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://www.tjh.com.cn/TjhNews/20140728_14417.html</t>
+          <t>https://www.tjh.com.cn/TjhNews/20240814_53123.html</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>进修</t>
+          <t>沟通</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -693,7 +693,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://www.tjh.com.cn/TjhNews/20210106_31938.html</t>
+          <t>https://www.tjh.com.cn/TjhNews/20230822_50825.html</t>
         </is>
       </c>
     </row>
@@ -705,147 +705,477 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>进修</t>
+          <t>沟通</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2021-01-06</t>
+          <t>2023-08-22</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://www.tjh.com.cn/TjhNews/20130909_13427.html</t>
+          <t>https://www.tjh.com.cn/TjhNews/20240704_52871.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>黄石市中心医院</t>
+          <t>咸宁市中心医院</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>合作</t>
+          <t>沟通</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2010-04-20</t>
+          <t>2014-07-28</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://www.tjh.com.cn/TjhNews/20211122_47248.html</t>
+          <t>https://www.tjh.com.cn/TjhNews/20210106_31938.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>黄石市中心医院</t>
+          <t>咸宁市中心医院</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>合作</t>
+          <t>沟通</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2021-11-22</t>
+          <t>2018-03-08</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://www.tjh.com.cn/contents/563/50446.html</t>
+          <t>https://www.tjh.com.cn/TjhNews/20180605_23933.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>黄石市中心医院</t>
+          <t>咸宁市中心医院</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>合作</t>
+          <t>沟通</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2023-06-06</t>
+          <t>2024-07-04</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://www.tjh.com.cn/TjhNews/20220927_49095.html</t>
+          <t>https://www.tjh.com.cn/TjhNews/20180308_23000.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>黄石市中心医院</t>
+          <t>咸宁市中心医院</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>合作</t>
+          <t>技术</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2022-09-27</t>
+          <t>2021-01-06</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://www.tjh.com.cn/Content/95860420.html</t>
+          <t>https://www.tjh.com.cn/TjhNews/20140728_14417.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>黄石市中心医院</t>
+          <t>咸宁市中心医院</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>沟通</t>
+          <t>技术</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2023-06-06</t>
+          <t>2024-04-25</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://www.tjh.com.cn/contents/563/50446.html</t>
+          <t>https://www.tjh.com.cn/TjhNews/20240425_52305.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>黄石市中心医院</t>
+          <t>咸宁市中心医院</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>进修</t>
+          <t>技术</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>2013-09-09</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://www.tjh.com.cn/TjhNews/20130909_13427.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>咸宁市中心医院</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>技术</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2014-07-28</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://www.tjh.com.cn/TjhNews/20180308_23000.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>咸宁市中心医院</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>技术</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2018-03-08</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://www.tjh.com.cn/TjhNews/20210106_31938.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>黄石市中心医院</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>合作</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2023-06-06</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://www.tjh.com.cn/TjhNews/20220927_49095.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>黄石市中心医院</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>合作</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>2018-08-01</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://www.tjh.com.cn/Content/95860420.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>黄石市中心医院</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>合作</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>2020-08-17</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://www.tjh.com.cn/contents/563/31219.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>黄石市中心医院</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>合作</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>2021-11-22</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://www.tjh.com.cn/contents/563/50446.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>黄石市中心医院</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>合作</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>2010-04-20</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://www.tjh.com.cn/TjhNews/20180801_24494.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>黄石市中心医院</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>合作</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
           <t>2022-09-27</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://www.tjh.com.cn/TjhNews/20211122_47248.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>黄石市中心医院</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>沟通</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>2023-06-06</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://www.tjh.com.cn/Content/95860420.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>黄石市中心医院</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>沟通</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>2020-12-31</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://www.tjh.com.cn/contents/563/31219.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>黄石市中心医院</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>沟通</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>2018-08-01</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>https://www.tjh.com.cn/contents/563/50446.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>黄石市中心医院</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>沟通</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>2020-08-17</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>https://www.tjh.com.cn/TjhNews/20201231_31921.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>黄石市中心医院</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>沟通</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>2021-11-22</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>https://www.tjh.com.cn/TjhNews/20180801_24494.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>黄石市中心医院</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>沟通</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>2010-04-20</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>https://www.tjh.com.cn/TjhNews/20211122_47248.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>黄石市中心医院</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>技术</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>2022-09-27</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>https://www.tjh.com.cn/TjhNews/20220927_49095.html</t>
         </is>
